--- a/config_4.6/sgxxl_tower_climbing_config.xlsx
+++ b/config_4.6/sgxxl_tower_climbing_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="370">
   <si>
     <t>line|行号</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>30,30,30,</t>
-  </si>
-  <si>
-    <t>30,30,30,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -880,8 +877,391 @@
     <t>"x18000",</t>
   </si>
   <si>
-    <t>500,500,500,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>累计消除30个苹果，30个铃铛，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，15个7，15个BAR</t>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,15,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个西瓜，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,50,</t>
+  </si>
+  <si>
+    <t>100,50,50,</t>
+  </si>
+  <si>
+    <t>120,120,60,</t>
+  </si>
+  <si>
+    <t>120,60,60,</t>
+  </si>
+  <si>
+    <t>150,150,80,</t>
+  </si>
+  <si>
+    <t>150,80,80,</t>
+  </si>
+  <si>
+    <t>200,200,100,</t>
+  </si>
+  <si>
+    <t>200,100,100,</t>
+  </si>
+  <si>
+    <t>300,300,150,</t>
+  </si>
+  <si>
+    <t>300,150,150,</t>
+  </si>
+  <si>
+    <t>400,400,200,</t>
+  </si>
+  <si>
+    <t>400,200,200,</t>
+  </si>
+  <si>
+    <t>500,500,250,</t>
+  </si>
+  <si>
+    <t>500,250,250,</t>
+  </si>
+  <si>
+    <t>600,600,300,</t>
+  </si>
+  <si>
+    <t>600,300,300,</t>
+  </si>
+  <si>
+    <t>800,800,400,</t>
+  </si>
+  <si>
+    <t>800,400,400,</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个西瓜，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个西瓜，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个西瓜，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个西瓜，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个西瓜，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个西瓜，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个西瓜，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个西瓜，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个西瓜，400个7，400个BAR</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -1428,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -1448,7 +1828,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>8</v>
@@ -1457,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
@@ -1477,7 +1857,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -1486,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="I4" s="4">
         <v>3</v>
@@ -1506,7 +1886,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -1515,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
@@ -1535,16 +1915,16 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="I6" s="4">
         <v>5</v>
@@ -1564,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
@@ -1573,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="I7" s="4">
         <v>6</v>
@@ -1590,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>49</v>
@@ -1599,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4">
         <v>7</v>
@@ -1619,19 +1999,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="I9" s="4">
         <v>8</v>
@@ -1648,19 +2028,19 @@
         <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
@@ -1677,19 +2057,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="I11" s="4">
         <v>10</v>
@@ -1706,19 +2086,19 @@
         <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="I12" s="4">
         <v>11</v>
@@ -1735,19 +2115,19 @@
         <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="I13" s="4">
         <v>12</v>
@@ -1764,19 +2144,19 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="I14" s="4">
         <v>13</v>
@@ -1793,19 +2173,19 @@
         <v>36</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="I15" s="4">
         <v>14</v>
@@ -1822,19 +2202,19 @@
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="I16" s="4">
         <v>15</v>
@@ -1851,19 +2231,19 @@
         <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="I17" s="4">
         <v>16</v>
@@ -1880,19 +2260,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18" s="4">
         <v>17</v>
@@ -1909,19 +2289,19 @@
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I19" s="4">
         <v>18</v>
@@ -1938,19 +2318,19 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I20" s="4">
         <v>19</v>
@@ -1967,19 +2347,19 @@
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I21" s="4">
         <v>20</v>
@@ -1996,19 +2376,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I22" s="4">
         <v>21</v>
@@ -2025,19 +2405,19 @@
         <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="I23" s="4">
         <v>22</v>
@@ -2054,19 +2434,19 @@
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="I24" s="4">
         <v>23</v>
@@ -2083,19 +2463,19 @@
         <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I25" s="4">
         <v>24</v>
@@ -2112,19 +2492,19 @@
         <v>37</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I26" s="4">
         <v>25</v>
@@ -2141,19 +2521,19 @@
         <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="I27" s="4">
         <v>26</v>
@@ -2170,7 +2550,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>47</v>
@@ -2179,7 +2559,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>13</v>
@@ -2196,10 +2576,10 @@
         <v>16528</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>48</v>
@@ -2208,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>13</v>
@@ -2228,19 +2608,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I30" s="4">
         <v>29</v>
@@ -2257,19 +2637,19 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I31" s="4">
         <v>30</v>
@@ -2286,19 +2666,19 @@
         <v>23</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I32" s="4">
         <v>31</v>
@@ -2315,19 +2695,19 @@
         <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I33" s="4">
         <v>32</v>
@@ -2344,19 +2724,19 @@
         <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I34" s="4">
         <v>33</v>
@@ -2373,19 +2753,19 @@
         <v>29</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="I35" s="4">
         <v>34</v>
@@ -2402,19 +2782,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="I36" s="4">
         <v>35</v>
@@ -2431,19 +2811,19 @@
         <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I37" s="4">
         <v>36</v>
@@ -2460,19 +2840,19 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I38" s="4">
         <v>37</v>
@@ -2489,19 +2869,19 @@
         <v>33</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="I39" s="4">
         <v>38</v>
@@ -2518,7 +2898,7 @@
         <v>41</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>50</v>
@@ -2527,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="4">
         <v>39</v>
@@ -2547,7 +2927,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>51</v>
@@ -2556,10 +2936,10 @@
         <v>9</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="4">
         <v>40</v>
@@ -2576,19 +2956,19 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I42" s="4">
         <v>41</v>
@@ -2605,19 +2985,19 @@
         <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I43" s="4">
         <v>42</v>
@@ -2634,19 +3014,19 @@
         <v>23</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I44" s="4">
         <v>43</v>
@@ -2663,19 +3043,19 @@
         <v>25</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I45" s="4">
         <v>44</v>
@@ -2692,19 +3072,19 @@
         <v>27</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>172</v>
+        <v>311</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I46" s="4">
         <v>45</v>
@@ -2721,19 +3101,19 @@
         <v>29</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="I47" s="4">
         <v>46</v>
@@ -2750,19 +3130,19 @@
         <v>32</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="I48" s="4">
         <v>47</v>
@@ -2779,19 +3159,19 @@
         <v>35</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I49" s="4">
         <v>48</v>
@@ -2808,19 +3188,19 @@
         <v>37</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="I50" s="4">
         <v>49</v>
@@ -2837,19 +3217,19 @@
         <v>33</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>177</v>
+        <v>316</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="I51" s="4">
         <v>50</v>
@@ -2866,16 +3246,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>13</v>
@@ -2895,16 +3275,16 @@
         <v>46</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>13</v>
@@ -2924,16 +3304,16 @@
         <v>16</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>42</v>
@@ -2953,19 +3333,19 @@
         <v>21</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I55" s="4">
         <v>54</v>
@@ -2982,19 +3362,19 @@
         <v>23</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I56" s="4">
         <v>55</v>
@@ -3011,19 +3391,19 @@
         <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I57" s="4">
         <v>56</v>
@@ -3040,19 +3420,19 @@
         <v>27</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I58" s="4">
         <v>57</v>
@@ -3069,19 +3449,19 @@
         <v>29</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I59" s="4">
         <v>58</v>
@@ -3098,19 +3478,19 @@
         <v>32</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I60" s="4">
         <v>59</v>
@@ -3127,19 +3507,19 @@
         <v>35</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I61" s="4">
         <v>60</v>
@@ -3156,19 +3536,19 @@
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I62" s="4">
         <v>61</v>
@@ -3185,19 +3565,19 @@
         <v>33</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I63" s="4">
         <v>62</v>
@@ -3211,22 +3591,22 @@
         <v>16563</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I64" s="4">
         <v>63</v>
@@ -3240,22 +3620,22 @@
         <v>16564</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I65" s="4">
         <v>64</v>
@@ -3269,19 +3649,19 @@
         <v>16565</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>14</v>
@@ -3301,19 +3681,19 @@
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I67" s="4">
         <v>66</v>
@@ -3330,19 +3710,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I68" s="4">
         <v>67</v>
@@ -3359,19 +3739,19 @@
         <v>23</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I69" s="4">
         <v>68</v>
@@ -3388,19 +3768,19 @@
         <v>25</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I70" s="4">
         <v>69</v>
@@ -3417,19 +3797,19 @@
         <v>27</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I71" s="4">
         <v>70</v>
@@ -3446,19 +3826,19 @@
         <v>29</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="I72" s="4">
         <v>71</v>
@@ -3475,19 +3855,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="I73" s="4">
         <v>72</v>
@@ -3504,19 +3884,19 @@
         <v>35</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I74" s="4">
         <v>73</v>
@@ -3533,19 +3913,19 @@
         <v>37</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="I75" s="4">
         <v>74</v>
@@ -3562,19 +3942,19 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="I76" s="4">
         <v>75</v>
@@ -3591,19 +3971,19 @@
         <v>43</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I77" s="4">
         <v>76</v>
@@ -3617,22 +3997,22 @@
         <v>16577</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I78" s="4">
         <v>77</v>
@@ -3646,22 +4026,22 @@
         <v>16578</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I79" s="4">
         <v>78</v>
@@ -3678,19 +4058,19 @@
         <v>16</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I80" s="4">
         <v>79</v>
@@ -3707,19 +4087,19 @@
         <v>21</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I81" s="4">
         <v>80</v>
@@ -3736,19 +4116,19 @@
         <v>23</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>181</v>
+        <v>336</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I82" s="4">
         <v>81</v>
@@ -3765,19 +4145,19 @@
         <v>25</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I83" s="4">
         <v>82</v>
@@ -3794,19 +4174,19 @@
         <v>27</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I84" s="4">
         <v>83</v>
@@ -3823,19 +4203,19 @@
         <v>29</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="I85" s="4">
         <v>84</v>
@@ -3852,19 +4232,19 @@
         <v>32</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="I86" s="4">
         <v>85</v>
@@ -3881,19 +4261,19 @@
         <v>35</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I87" s="4">
         <v>86</v>
@@ -3910,19 +4290,19 @@
         <v>37</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="I88" s="4">
         <v>87</v>
@@ -3939,19 +4319,19 @@
         <v>33</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>188</v>
+        <v>343</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="I89" s="4">
         <v>88</v>
@@ -3965,22 +4345,22 @@
         <v>16589</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I90" s="4">
         <v>89</v>
@@ -3994,22 +4374,22 @@
         <v>16590</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I91" s="4">
         <v>90</v>
@@ -4023,19 +4403,19 @@
         <v>16591</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>14</v>
@@ -4055,19 +4435,19 @@
         <v>16</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I93" s="4">
         <v>92</v>
@@ -4084,19 +4464,19 @@
         <v>21</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I94" s="4">
         <v>93</v>
@@ -4113,19 +4493,19 @@
         <v>23</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I95" s="4">
         <v>94</v>
@@ -4142,19 +4522,19 @@
         <v>25</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I96" s="4">
         <v>95</v>
@@ -4171,19 +4551,19 @@
         <v>27</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I97" s="4">
         <v>96</v>
@@ -4200,19 +4580,19 @@
         <v>29</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="I98" s="4">
         <v>97</v>
@@ -4229,19 +4609,19 @@
         <v>32</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="I99" s="4">
         <v>98</v>
@@ -4258,19 +4638,19 @@
         <v>35</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="F100" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="I100" s="4">
         <v>99</v>
@@ -4287,19 +4667,19 @@
         <v>37</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I101" s="4">
         <v>100</v>
@@ -4316,19 +4696,19 @@
         <v>33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="F102" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="I102" s="4">
         <v>101</v>
@@ -4345,19 +4725,19 @@
         <v>45</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I103" s="4">
         <v>102</v>
@@ -4374,19 +4754,19 @@
         <v>46</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I104" s="4">
         <v>103</v>
@@ -4400,22 +4780,22 @@
         <v>16604</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I105" s="4">
         <v>104</v>
@@ -4432,19 +4812,19 @@
         <v>16</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I106" s="4">
         <v>105</v>
@@ -4461,19 +4841,19 @@
         <v>21</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I107" s="4">
         <v>106</v>
@@ -4490,19 +4870,19 @@
         <v>23</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I108" s="4">
         <v>107</v>
@@ -4519,19 +4899,19 @@
         <v>25</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I109" s="4">
         <v>108</v>
@@ -4548,19 +4928,19 @@
         <v>27</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I110" s="4">
         <v>109</v>
@@ -4577,19 +4957,19 @@
         <v>29</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="I111" s="4">
         <v>110</v>
@@ -4606,19 +4986,19 @@
         <v>32</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="I112" s="4">
         <v>111</v>
@@ -4635,19 +5015,19 @@
         <v>35</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I113" s="4">
         <v>112</v>
@@ -4664,19 +5044,19 @@
         <v>37</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="I114" s="4">
         <v>113</v>
@@ -4693,19 +5073,19 @@
         <v>33</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>199</v>
+        <v>361</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="I115" s="4">
         <v>114</v>
@@ -4722,19 +5102,19 @@
         <v>45</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I116" s="4">
         <v>115</v>
@@ -4751,19 +5131,19 @@
         <v>46</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I117" s="4">
         <v>116</v>
@@ -4777,22 +5157,22 @@
         <v>16617</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F118" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="H118" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I118" s="4">
         <v>117</v>
@@ -4809,19 +5189,19 @@
         <v>16</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I119" s="4">
         <v>118</v>
@@ -4838,19 +5218,19 @@
         <v>21</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I120" s="4">
         <v>119</v>
@@ -4867,19 +5247,19 @@
         <v>23</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I121" s="4">
         <v>120</v>
@@ -4896,19 +5276,19 @@
         <v>25</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I122" s="4">
         <v>121</v>
@@ -4925,19 +5305,19 @@
         <v>27</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I123" s="4">
         <v>122</v>
@@ -4954,19 +5334,19 @@
         <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="I124" s="4">
         <v>123</v>
@@ -4983,19 +5363,19 @@
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="I125" s="4">
         <v>124</v>
@@ -5012,19 +5392,19 @@
         <v>35</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I126" s="4">
         <v>125</v>
@@ -5041,19 +5421,19 @@
         <v>37</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="I127" s="4">
         <v>126</v>
@@ -5070,19 +5450,19 @@
         <v>33</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="I128" s="4">
         <v>127</v>
@@ -5099,19 +5479,19 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I129" s="4">
         <v>128</v>
@@ -5128,19 +5508,19 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I130" s="4">
         <v>129</v>
@@ -5154,22 +5534,22 @@
         <v>16630</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I131" s="4">
         <v>130</v>
@@ -5206,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>
@@ -5254,10 +5634,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" ca="1" si="1">INDIRECT("D"&amp;3)</f>
+        <f t="shared" ref="G6:G8" ca="1" si="1">INDIRECT("D"&amp;3)</f>
         <v>累计消除30个苹果，30个铃铛，30个7</v>
       </c>
     </row>
@@ -5266,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5290,7 +5670,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="str">
         <f ca="1">INDIRECT("D"&amp;3)</f>
@@ -5302,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.15">
@@ -5310,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.15">
@@ -5318,7 +5698,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
@@ -5326,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.15">
@@ -5334,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.15">
@@ -5342,7 +5722,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
@@ -5350,7 +5730,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
@@ -5358,7 +5738,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
@@ -5366,7 +5746,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
@@ -5374,7 +5754,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
@@ -5382,7 +5762,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
@@ -5390,7 +5770,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
@@ -5398,7 +5778,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
@@ -5406,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
@@ -5414,7 +5794,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
@@ -5422,7 +5802,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
@@ -5430,7 +5810,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
@@ -5438,7 +5818,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
@@ -5462,7 +5842,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
@@ -5470,7 +5850,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
@@ -5478,7 +5858,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
@@ -5486,7 +5866,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
@@ -5494,7 +5874,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
@@ -5502,7 +5882,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
@@ -5510,7 +5890,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
@@ -5518,7 +5898,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
@@ -5526,7 +5906,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
@@ -5534,7 +5914,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.15">
@@ -5558,7 +5938,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.15">
@@ -5566,7 +5946,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -5574,7 +5954,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -5582,7 +5962,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.15">
@@ -5590,7 +5970,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.15">
@@ -5598,7 +5978,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.15">
@@ -5606,7 +5986,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
@@ -5614,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -5622,7 +6002,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
@@ -5630,7 +6010,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -5638,7 +6018,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
@@ -5646,7 +6026,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
@@ -5654,7 +6034,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
@@ -5662,7 +6042,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
@@ -5670,7 +6050,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
@@ -5678,7 +6058,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
@@ -5686,7 +6066,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
@@ -5694,7 +6074,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
@@ -5702,7 +6082,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
@@ -5710,7 +6090,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
@@ -5718,7 +6098,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
@@ -5726,7 +6106,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
@@ -5734,7 +6114,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
@@ -5742,7 +6122,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
@@ -5758,7 +6138,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
@@ -5766,7 +6146,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
@@ -5774,7 +6154,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
@@ -5782,7 +6162,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
@@ -5790,7 +6170,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
@@ -5798,7 +6178,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
@@ -5806,7 +6186,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
@@ -5814,7 +6194,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
@@ -5822,7 +6202,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
@@ -5830,7 +6210,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
@@ -5838,7 +6218,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
@@ -5846,7 +6226,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
@@ -5862,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
@@ -5870,7 +6250,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
@@ -5878,7 +6258,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -5886,7 +6266,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
@@ -5894,7 +6274,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
@@ -5902,7 +6282,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
@@ -5910,7 +6290,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
@@ -5918,7 +6298,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
@@ -5926,7 +6306,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
@@ -5934,7 +6314,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
@@ -5942,7 +6322,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
@@ -5950,7 +6330,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
@@ -5966,7 +6346,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
@@ -5974,7 +6354,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
@@ -5982,7 +6362,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
@@ -5990,7 +6370,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
@@ -5998,7 +6378,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
@@ -6006,7 +6386,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
@@ -6014,7 +6394,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
@@ -6022,7 +6402,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -6030,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
@@ -6038,7 +6418,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
@@ -6046,7 +6426,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
@@ -6054,7 +6434,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
@@ -6062,7 +6442,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
@@ -6070,7 +6450,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
@@ -6078,7 +6458,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
@@ -6086,7 +6466,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
@@ -6094,7 +6474,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
@@ -6102,7 +6482,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
@@ -6110,7 +6490,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
@@ -6118,7 +6498,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
@@ -6126,7 +6506,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
@@ -6134,7 +6514,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
@@ -6142,7 +6522,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
@@ -6150,7 +6530,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
@@ -6158,7 +6538,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -6166,7 +6546,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
@@ -6174,7 +6554,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
@@ -6182,7 +6562,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
@@ -6190,7 +6570,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
@@ -6198,7 +6578,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
@@ -6206,7 +6586,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -6214,7 +6594,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -6222,7 +6602,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -6230,7 +6610,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -6238,7 +6618,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -6246,7 +6626,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -6254,7 +6634,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
@@ -6262,7 +6642,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
@@ -6270,7 +6650,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.6/sgxxl_tower_climbing_config.xlsx
+++ b/config_4.6/sgxxl_tower_climbing_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="375">
   <si>
     <t>line|行号</t>
   </si>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"xxl_icon_2","xxl_icon_2","xxl_icon_2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"xxl_icon_7","xxl_icon_7","xxl_icon_7",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -339,10 +335,6 @@
     <t>累计消除100个西瓜，100个7，100个BAR</t>
   </si>
   <si>
-    <t>"xxl_icon_3","xxl_icon_3","xxl_icon_3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"xxl_icon_4","xxl_icon_4","xxl_icon_4",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -496,10 +488,6 @@
     <t>300,300,300,</t>
   </si>
   <si>
-    <t>2,2,2,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>累计消除（1万及以上档次）</t>
   </si>
   <si>
@@ -846,10 +834,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9,9,9,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单局消除（512万及以上档次）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1262,6 +1246,33 @@
   </si>
   <si>
     <t>累计消除800个西瓜，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上西瓜</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上西瓜</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,6 +1338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1389,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,9 +1432,6 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,6 +1449,30 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1743,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1799,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -1828,7 +1866,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>8</v>
@@ -1837,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
@@ -1857,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -1866,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I4" s="4">
         <v>3</v>
@@ -1886,7 +1924,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -1895,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
@@ -1915,16 +1953,16 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I6" s="4">
         <v>5</v>
@@ -1944,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
@@ -1953,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I7" s="4">
         <v>6</v>
@@ -1970,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>49</v>
@@ -1979,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I8" s="4">
         <v>7</v>
@@ -1999,19 +2037,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I9" s="4">
         <v>8</v>
@@ -2028,19 +2066,19 @@
         <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
@@ -2057,19 +2095,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I11" s="4">
         <v>10</v>
@@ -2086,19 +2124,19 @@
         <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I12" s="4">
         <v>11</v>
@@ -2115,19 +2153,19 @@
         <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I13" s="4">
         <v>12</v>
@@ -2144,19 +2182,19 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I14" s="4">
         <v>13</v>
@@ -2173,19 +2211,19 @@
         <v>36</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I15" s="4">
         <v>14</v>
@@ -2202,19 +2240,19 @@
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I16" s="4">
         <v>15</v>
@@ -2231,19 +2269,19 @@
         <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I17" s="4">
         <v>16</v>
@@ -2260,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>63</v>
@@ -2269,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I18" s="4">
         <v>17</v>
@@ -2289,19 +2327,19 @@
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I19" s="4">
         <v>18</v>
@@ -2318,19 +2356,19 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I20" s="4">
         <v>19</v>
@@ -2347,19 +2385,19 @@
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I21" s="4">
         <v>20</v>
@@ -2376,19 +2414,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I22" s="4">
         <v>21</v>
@@ -2405,19 +2443,19 @@
         <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I23" s="4">
         <v>22</v>
@@ -2434,19 +2472,19 @@
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I24" s="4">
         <v>23</v>
@@ -2463,19 +2501,19 @@
         <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I25" s="4">
         <v>24</v>
@@ -2492,19 +2530,19 @@
         <v>37</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I26" s="4">
         <v>25</v>
@@ -2521,79 +2559,79 @@
         <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+    <row r="28" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="21">
         <v>16527</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="20">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="21">
         <v>16528</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="20">
         <v>28</v>
       </c>
     </row>
@@ -2608,19 +2646,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I30" s="4">
         <v>29</v>
@@ -2637,19 +2675,19 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I31" s="4">
         <v>30</v>
@@ -2666,19 +2704,19 @@
         <v>23</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I32" s="4">
         <v>31</v>
@@ -2695,19 +2733,19 @@
         <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I33" s="4">
         <v>32</v>
@@ -2724,19 +2762,19 @@
         <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I34" s="4">
         <v>33</v>
@@ -2753,19 +2791,19 @@
         <v>29</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I35" s="4">
         <v>34</v>
@@ -2782,19 +2820,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I36" s="4">
         <v>35</v>
@@ -2811,19 +2849,19 @@
         <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I37" s="4">
         <v>36</v>
@@ -2840,19 +2878,19 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I38" s="4">
         <v>37</v>
@@ -2869,79 +2907,79 @@
         <v>33</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+    <row r="40" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="21">
         <v>16539</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="G40" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="20">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
+    <row r="41" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="21">
         <v>16540</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="G41" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="20">
         <v>40</v>
       </c>
     </row>
@@ -2956,19 +2994,19 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I42" s="4">
         <v>41</v>
@@ -2985,19 +3023,19 @@
         <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I43" s="4">
         <v>42</v>
@@ -3014,19 +3052,19 @@
         <v>23</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I44" s="4">
         <v>43</v>
@@ -3043,19 +3081,19 @@
         <v>25</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I45" s="4">
         <v>44</v>
@@ -3072,19 +3110,19 @@
         <v>27</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I46" s="4">
         <v>45</v>
@@ -3101,19 +3139,19 @@
         <v>29</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I47" s="4">
         <v>46</v>
@@ -3130,19 +3168,19 @@
         <v>32</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I48" s="4">
         <v>47</v>
@@ -3159,19 +3197,19 @@
         <v>35</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I49" s="4">
         <v>48</v>
@@ -3188,19 +3226,19 @@
         <v>37</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I50" s="4">
         <v>49</v>
@@ -3217,79 +3255,79 @@
         <v>33</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+    <row r="52" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="20">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="21">
         <v>16551</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="20">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+    <row r="53" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="21">
         <v>16552</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="20">
         <v>52</v>
       </c>
     </row>
@@ -3304,16 +3342,16 @@
         <v>16</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>42</v>
@@ -3333,19 +3371,19 @@
         <v>21</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I55" s="4">
         <v>54</v>
@@ -3362,19 +3400,19 @@
         <v>23</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I56" s="4">
         <v>55</v>
@@ -3391,19 +3429,19 @@
         <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I57" s="4">
         <v>56</v>
@@ -3420,19 +3458,19 @@
         <v>27</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I58" s="4">
         <v>57</v>
@@ -3449,19 +3487,19 @@
         <v>29</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I59" s="4">
         <v>58</v>
@@ -3478,19 +3516,19 @@
         <v>32</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I60" s="4">
         <v>59</v>
@@ -3507,19 +3545,19 @@
         <v>35</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I61" s="4">
         <v>60</v>
@@ -3536,19 +3574,19 @@
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I62" s="4">
         <v>61</v>
@@ -3565,19 +3603,19 @@
         <v>33</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I63" s="4">
         <v>62</v>
@@ -3594,19 +3632,19 @@
         <v>68</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I64" s="4">
         <v>63</v>
@@ -3620,53 +3658,53 @@
         <v>16564</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
+    <row r="66" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="21">
         <v>16565</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="C66" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="F66" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="G66" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="20">
         <v>65</v>
       </c>
     </row>
@@ -3681,19 +3719,19 @@
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>224</v>
+      <c r="G67" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I67" s="4">
         <v>66</v>
@@ -3710,19 +3748,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>224</v>
+      <c r="G68" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I68" s="4">
         <v>67</v>
@@ -3739,19 +3777,19 @@
         <v>23</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>224</v>
+      <c r="G69" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I69" s="4">
         <v>68</v>
@@ -3768,19 +3806,19 @@
         <v>25</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>224</v>
+      <c r="G70" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I70" s="4">
         <v>69</v>
@@ -3797,19 +3835,19 @@
         <v>27</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>224</v>
+      <c r="G71" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I71" s="4">
         <v>70</v>
@@ -3826,19 +3864,19 @@
         <v>29</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="15" t="s">
-        <v>224</v>
+      <c r="G72" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I72" s="4">
         <v>71</v>
@@ -3855,19 +3893,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>224</v>
+      <c r="G73" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I73" s="4">
         <v>72</v>
@@ -3884,19 +3922,19 @@
         <v>35</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="15" t="s">
-        <v>224</v>
+      <c r="G74" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I74" s="4">
         <v>73</v>
@@ -3913,19 +3951,19 @@
         <v>37</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>224</v>
+      <c r="G75" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I75" s="4">
         <v>74</v>
@@ -3942,19 +3980,19 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="15" t="s">
-        <v>224</v>
+      <c r="G76" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I76" s="4">
         <v>75</v>
@@ -3968,22 +4006,22 @@
         <v>16576</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I77" s="4">
         <v>76</v>
@@ -3997,53 +4035,53 @@
         <v>16577</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+    <row r="79" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="20">
         <v>78</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="21">
         <v>16578</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="C79" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I79" s="4">
+      <c r="F79" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="20">
         <v>78</v>
       </c>
     </row>
@@ -4058,19 +4096,19 @@
         <v>16</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I80" s="4">
         <v>79</v>
@@ -4087,19 +4125,19 @@
         <v>21</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I81" s="4">
         <v>80</v>
@@ -4116,19 +4154,19 @@
         <v>23</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I82" s="4">
         <v>81</v>
@@ -4145,19 +4183,19 @@
         <v>25</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I83" s="4">
         <v>82</v>
@@ -4174,19 +4212,19 @@
         <v>27</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I84" s="4">
         <v>83</v>
@@ -4203,19 +4241,19 @@
         <v>29</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I85" s="4">
         <v>84</v>
@@ -4232,19 +4270,19 @@
         <v>32</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I86" s="4">
         <v>85</v>
@@ -4261,19 +4299,19 @@
         <v>35</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I87" s="4">
         <v>86</v>
@@ -4290,19 +4328,19 @@
         <v>37</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I88" s="4">
         <v>87</v>
@@ -4319,19 +4357,19 @@
         <v>33</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I89" s="4">
         <v>88</v>
@@ -4345,22 +4383,22 @@
         <v>16589</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I90" s="4">
         <v>89</v>
@@ -4374,22 +4412,22 @@
         <v>16590</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="I91" s="4">
         <v>90</v>
@@ -4403,29 +4441,29 @@
         <v>16591</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H92" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18">
+    <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="5">
@@ -4435,26 +4473,26 @@
         <v>16</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F93" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>229</v>
+      <c r="G93" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="18">
+    <row r="94" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="5">
@@ -4464,26 +4502,26 @@
         <v>21</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F94" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="20" t="s">
-        <v>229</v>
+      <c r="G94" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="18">
+    <row r="95" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="5">
@@ -4493,26 +4531,26 @@
         <v>23</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F95" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="20" t="s">
-        <v>229</v>
+      <c r="G95" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="18">
+    <row r="96" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="5">
@@ -4522,26 +4560,26 @@
         <v>25</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F96" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="20" t="s">
-        <v>229</v>
+      <c r="G96" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18">
+    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="5">
@@ -4551,26 +4589,26 @@
         <v>27</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F97" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>229</v>
+      <c r="G97" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="18">
+    <row r="98" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="5">
@@ -4580,26 +4618,26 @@
         <v>29</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F98" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="20" t="s">
-        <v>229</v>
+      <c r="G98" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18">
+    <row r="99" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="5">
@@ -4609,26 +4647,26 @@
         <v>32</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F99" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="20" t="s">
-        <v>229</v>
+      <c r="G99" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="18">
+    <row r="100" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="5">
@@ -4638,26 +4676,26 @@
         <v>35</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F100" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="20" t="s">
-        <v>229</v>
+      <c r="G100" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="18">
+    <row r="101" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="5">
@@ -4667,26 +4705,26 @@
         <v>37</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F101" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="20" t="s">
-        <v>229</v>
+      <c r="G101" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="18">
+    <row r="102" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="5">
@@ -4696,106 +4734,106 @@
         <v>33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F102" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="20" t="s">
-        <v>229</v>
+      <c r="G102" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="18">
+    <row r="103" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="5">
         <v>16602</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>45</v>
+      <c r="C103" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>230</v>
+        <v>372</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="18">
+    <row r="104" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="5">
         <v>16603</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>46</v>
+      <c r="C104" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>230</v>
+        <v>373</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="18">
+    <row r="105" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="5">
         <v>16604</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>129</v>
+        <v>366</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I105" s="4">
         <v>104</v>
@@ -4812,19 +4850,19 @@
         <v>16</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I106" s="4">
         <v>105</v>
@@ -4841,19 +4879,19 @@
         <v>21</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I107" s="4">
         <v>106</v>
@@ -4870,19 +4908,19 @@
         <v>23</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I108" s="4">
         <v>107</v>
@@ -4899,19 +4937,19 @@
         <v>25</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I109" s="4">
         <v>108</v>
@@ -4928,19 +4966,19 @@
         <v>27</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I110" s="4">
         <v>109</v>
@@ -4957,19 +4995,19 @@
         <v>29</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I111" s="4">
         <v>110</v>
@@ -4986,19 +5024,19 @@
         <v>32</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I112" s="4">
         <v>111</v>
@@ -5015,19 +5053,19 @@
         <v>35</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I113" s="4">
         <v>112</v>
@@ -5044,19 +5082,19 @@
         <v>37</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I114" s="4">
         <v>113</v>
@@ -5073,19 +5111,19 @@
         <v>33</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I115" s="4">
         <v>114</v>
@@ -5098,23 +5136,23 @@
       <c r="B116" s="5">
         <v>16615</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>45</v>
+      <c r="C116" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I116" s="4">
         <v>115</v>
@@ -5127,23 +5165,23 @@
       <c r="B117" s="5">
         <v>16616</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>46</v>
+      <c r="C117" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I117" s="4">
         <v>116</v>
@@ -5157,22 +5195,22 @@
         <v>16617</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>129</v>
+        <v>230</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I118" s="4">
         <v>117</v>
@@ -5189,19 +5227,19 @@
         <v>16</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>200</v>
+      <c r="G119" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="I119" s="4">
         <v>118</v>
@@ -5218,19 +5256,19 @@
         <v>21</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H120" s="17" t="s">
-        <v>287</v>
+      <c r="G120" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I120" s="4">
         <v>119</v>
@@ -5247,19 +5285,19 @@
         <v>23</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H121" s="17" t="s">
-        <v>287</v>
+      <c r="G121" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I121" s="4">
         <v>120</v>
@@ -5276,19 +5314,19 @@
         <v>25</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>287</v>
+      <c r="G122" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I122" s="4">
         <v>121</v>
@@ -5305,19 +5343,19 @@
         <v>27</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>287</v>
+      <c r="G123" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I123" s="4">
         <v>122</v>
@@ -5334,19 +5372,19 @@
         <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G124" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>288</v>
+      <c r="G124" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I124" s="4">
         <v>123</v>
@@ -5363,19 +5401,19 @@
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>288</v>
+      <c r="G125" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I125" s="4">
         <v>124</v>
@@ -5392,19 +5430,19 @@
         <v>35</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>287</v>
+      <c r="G126" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I126" s="4">
         <v>125</v>
@@ -5421,19 +5459,19 @@
         <v>37</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>287</v>
+      <c r="G127" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="I127" s="4">
         <v>126</v>
@@ -5450,19 +5488,19 @@
         <v>33</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>288</v>
+      <c r="G128" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I128" s="4">
         <v>127</v>
@@ -5479,19 +5517,19 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>121</v>
+        <v>219</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="I129" s="4">
         <v>128</v>
@@ -5508,19 +5546,19 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>121</v>
+        <v>219</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="I130" s="4">
         <v>129</v>
@@ -5534,22 +5572,22 @@
         <v>16630</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H131" s="17" t="s">
-        <v>129</v>
+        <v>219</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I131" s="4">
         <v>130</v>
@@ -5586,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>
@@ -5634,7 +5672,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G8" ca="1" si="1">INDIRECT("D"&amp;3)</f>
@@ -5646,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5754,7 +5792,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
@@ -5762,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
@@ -5770,7 +5808,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
@@ -5778,7 +5816,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
@@ -5786,7 +5824,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
@@ -5794,7 +5832,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
@@ -5802,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
@@ -5810,7 +5848,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
@@ -5818,7 +5856,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
@@ -5842,7 +5880,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
@@ -5850,7 +5888,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
@@ -5858,7 +5896,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
@@ -5866,7 +5904,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
@@ -5874,7 +5912,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
@@ -5882,7 +5920,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
@@ -5890,7 +5928,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
@@ -5898,7 +5936,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
@@ -5906,7 +5944,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
@@ -5914,7 +5952,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.15">
@@ -5938,7 +5976,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.15">
@@ -5946,7 +5984,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -5954,7 +5992,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -5962,7 +6000,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.15">
@@ -5970,7 +6008,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.15">
@@ -5978,7 +6016,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.15">
@@ -5986,7 +6024,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
@@ -5994,7 +6032,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -6002,7 +6040,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
@@ -6010,7 +6048,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -6034,7 +6072,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
@@ -6042,7 +6080,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
@@ -6050,7 +6088,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
@@ -6058,7 +6096,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
@@ -6066,7 +6104,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
@@ -6074,7 +6112,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
@@ -6082,7 +6120,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
@@ -6090,7 +6128,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
@@ -6098,7 +6136,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
@@ -6106,7 +6144,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
@@ -6138,7 +6176,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
@@ -6146,7 +6184,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
@@ -6154,7 +6192,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
@@ -6162,7 +6200,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
@@ -6170,7 +6208,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
@@ -6178,7 +6216,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
@@ -6186,7 +6224,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
@@ -6194,7 +6232,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
@@ -6202,7 +6240,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
@@ -6210,7 +6248,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
@@ -6218,7 +6256,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
@@ -6226,7 +6264,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
@@ -6242,7 +6280,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
@@ -6250,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
@@ -6258,7 +6296,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -6266,7 +6304,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
@@ -6274,7 +6312,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
@@ -6282,7 +6320,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
@@ -6290,7 +6328,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
@@ -6298,7 +6336,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
@@ -6306,7 +6344,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
@@ -6314,7 +6352,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
@@ -6322,7 +6360,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
@@ -6330,7 +6368,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
@@ -6346,7 +6384,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
@@ -6354,7 +6392,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
@@ -6362,7 +6400,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
@@ -6370,7 +6408,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
@@ -6378,7 +6416,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
@@ -6386,7 +6424,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
@@ -6394,7 +6432,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
@@ -6402,7 +6440,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -6410,7 +6448,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
@@ -6418,7 +6456,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
@@ -6426,7 +6464,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
@@ -6434,7 +6472,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
@@ -6442,7 +6480,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
@@ -6450,7 +6488,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
@@ -6458,7 +6496,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
@@ -6466,7 +6504,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
@@ -6474,7 +6512,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
@@ -6482,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
@@ -6490,7 +6528,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
@@ -6498,7 +6536,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
@@ -6506,7 +6544,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
@@ -6514,7 +6552,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
@@ -6522,7 +6560,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
@@ -6530,7 +6568,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
@@ -6538,7 +6576,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -6546,7 +6584,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
@@ -6554,7 +6592,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
@@ -6562,7 +6600,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
@@ -6570,7 +6608,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
@@ -6578,7 +6616,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
@@ -6586,7 +6624,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -6594,7 +6632,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -6602,7 +6640,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -6610,7 +6648,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -6618,7 +6656,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -6626,7 +6664,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -6634,7 +6672,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
@@ -6642,7 +6680,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
@@ -6650,11 +6688,12 @@
         <v>130</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>